--- a/state/washington/housing_estimate.xlsx
+++ b/state/washington/housing_estimate.xlsx
@@ -851,7 +851,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1296,7 +1296,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1736,7 +1736,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2566,7 +2566,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2971,7 +2971,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4343,7 +4343,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5602,7 +5602,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6612,7 +6612,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7460,7 +7460,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8373,7 +8373,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9289,7 +9289,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9945,7 +9945,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10459,7 +10459,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11097,7 +11097,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11611,7 +11611,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12524,7 +12524,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
